--- a/アルバム更新・削除_結合テスト.xlsx
+++ b/アルバム更新・削除_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35C127B-5A9C-48CF-8473-61F8D575B1D0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F2FBFA-BD2C-42CF-8F5D-41FF89DA632A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="162">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -2240,6 +2240,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ホスト名を変更する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2329,7 +2339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2352,9 +2362,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4367,7 +4374,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4378,7 +4385,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4418,7 +4425,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4473,7 +4480,7 @@
         <v>102</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4522,7 +4529,7 @@
         <v>103</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -4571,7 +4578,7 @@
         <v>104</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -4609,7 +4616,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -4617,7 +4624,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4658,7 +4665,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -4694,7 +4701,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>73</v>
@@ -4732,7 +4739,7 @@
         <v>86</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -4770,7 +4777,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -4805,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7378DE-BC8E-4933-B6C3-0E70595E5448}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4817,7 +4824,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4857,7 +4864,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4912,7 +4919,7 @@
         <v>121</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4950,7 +4957,7 @@
         <v>118</v>
       </c>
       <c r="G10" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -4988,7 +4995,7 @@
         <v>122</v>
       </c>
       <c r="G12" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -5026,7 +5033,7 @@
         <v>123</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5064,7 +5071,7 @@
         <v>88</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5102,7 +5109,7 @@
         <v>91</v>
       </c>
       <c r="G18" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -5138,7 +5145,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5149,7 +5156,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5189,7 +5196,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5244,7 +5251,7 @@
         <v>111</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5282,7 +5289,7 @@
         <v>114</v>
       </c>
       <c r="G13" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -5320,7 +5327,7 @@
         <v>82</v>
       </c>
       <c r="G15" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -5355,7 +5362,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5366,7 +5373,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5406,7 +5413,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5461,7 +5468,7 @@
         <v>128</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5510,7 +5517,7 @@
         <v>103</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5559,7 +5566,7 @@
         <v>129</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5608,7 +5615,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5655,7 +5662,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5695,7 +5702,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5750,7 +5757,7 @@
         <v>131</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5795,13 +5802,13 @@
         <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5852,7 +5859,7 @@
         <v>93</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5888,7 +5895,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5952,7 +5959,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
